--- a/data/pases.xlsx
+++ b/data/pases.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Pases"/>
+    <sheet sheetId="1" name="Pases" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>timestamp</t>
   </si>
@@ -32,20 +32,34 @@
   </si>
   <si>
     <t>user</t>
+  </si>
+  <si>
+    <t>2025-11-09T21:38:19.768Z</t>
+  </si>
+  <si>
+    <t>Juan Perez</t>
+  </si>
+  <si>
+    <t>35b33fe1</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/index.html?n=Juan%20Perez&amp;p=1&amp;id=35b33fe1</t>
+  </si>
+  <si>
+    <t>karen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,29 +82,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -384,21 +393,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="13.576428571428572" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.576428571428572" style="2" customWidth="1"/>
+    <col min="4" max="6" width="13.576428571428572" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" ht="18.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,6 +422,26 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
